--- a/data/trans_orig/P36BPD14_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD14_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>70031</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>54406</v>
+        <v>54446</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>88252</v>
+        <v>88795</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1221059882328231</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0948622239017852</v>
+        <v>0.09493207501497627</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1538754241076729</v>
+        <v>0.1548226544659125</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>154</v>
@@ -762,19 +762,19 @@
         <v>84576</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>71658</v>
+        <v>71927</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>98271</v>
+        <v>97438</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1031566225256897</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08739980325291229</v>
+        <v>0.08772843747123173</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1198598716815869</v>
+        <v>0.1188439217198251</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>226</v>
@@ -783,19 +783,19 @@
         <v>154608</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>135766</v>
+        <v>135090</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>176502</v>
+        <v>178913</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1109561831944127</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09743403885875633</v>
+        <v>0.09694866598439489</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1266686503230903</v>
+        <v>0.1283994098978084</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>260378</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>237750</v>
+        <v>238393</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>282496</v>
+        <v>285595</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4539928213254527</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4145393088839571</v>
+        <v>0.4156603844059717</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.492557495873358</v>
+        <v>0.4979601949572948</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>725</v>
@@ -833,19 +833,19 @@
         <v>416816</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>394475</v>
+        <v>393376</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>438547</v>
+        <v>437805</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5083843664166938</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4811356685070475</v>
+        <v>0.4797950685279834</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5348893342115296</v>
+        <v>0.5339845328934034</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1055</v>
@@ -854,19 +854,19 @@
         <v>677194</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>643953</v>
+        <v>645012</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>710094</v>
+        <v>710144</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4859968014521832</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4621409577474145</v>
+        <v>0.4629009184539158</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5096076757829622</v>
+        <v>0.5096439027478994</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>243120</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>220861</v>
+        <v>221446</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>265307</v>
+        <v>267508</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4239011904417241</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.385091952475233</v>
+        <v>0.3861107340790464</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.462587753464933</v>
+        <v>0.4664241715790013</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>543</v>
@@ -904,19 +904,19 @@
         <v>318491</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>296039</v>
+        <v>296321</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>341088</v>
+        <v>340837</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.3884590110576166</v>
+        <v>0.3884590110576165</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3610736494844523</v>
+        <v>0.3614187793429852</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4160194819578735</v>
+        <v>0.4157131460969195</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>825</v>
@@ -925,19 +925,19 @@
         <v>561611</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>528999</v>
+        <v>528795</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>592634</v>
+        <v>591706</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4030470153534041</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3796429704896235</v>
+        <v>0.3794965431527846</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.425311391097125</v>
+        <v>0.4246448666490941</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>198957</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>166034</v>
+        <v>168093</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>232114</v>
+        <v>233394</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08949280635927265</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07468392527741799</v>
+        <v>0.0756098046541215</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1044073169531805</v>
+        <v>0.104983041762249</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>267</v>
@@ -1050,19 +1050,19 @@
         <v>211917</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>186221</v>
+        <v>185403</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>239416</v>
+        <v>240643</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.09814806840706372</v>
+        <v>0.09814806840706373</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08624694436839125</v>
+        <v>0.085867927822214</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1108840450685022</v>
+        <v>0.1114521653735484</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>420</v>
@@ -1071,19 +1071,19 @@
         <v>410874</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>368867</v>
+        <v>370462</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>457050</v>
+        <v>456277</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09375723384134679</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08417163219467577</v>
+        <v>0.08453563617130086</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1042940218081196</v>
+        <v>0.1041175475822637</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>973620</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>921905</v>
+        <v>921211</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1027110</v>
+        <v>1028856</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4379437609131701</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4146818605417356</v>
+        <v>0.4143695215027446</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.462004292826787</v>
+        <v>0.4627893942046597</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1162</v>
@@ -1121,19 +1121,19 @@
         <v>912700</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>868480</v>
+        <v>867063</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>960094</v>
+        <v>955365</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4227105043430763</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.402230520898193</v>
+        <v>0.4015744511651855</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4446610492783734</v>
+        <v>0.4424708288187555</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2028</v>
@@ -1142,19 +1142,19 @@
         <v>1886320</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1824692</v>
+        <v>1817602</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1962819</v>
+        <v>1958588</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4304383708278898</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4163756408523394</v>
+        <v>0.4147577113403992</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4478947534479075</v>
+        <v>0.4469292957416646</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>1050585</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>993801</v>
+        <v>997754</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1100521</v>
+        <v>1107893</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4725634327275572</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.447021503553137</v>
+        <v>0.4487996758377543</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4950250536962694</v>
+        <v>0.498341141209722</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1484</v>
@@ -1192,19 +1192,19 @@
         <v>1034543</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>990165</v>
+        <v>995365</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1080264</v>
+        <v>1080386</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.47914142724986</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4585880120135148</v>
+        <v>0.4609965067702609</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5003168381766986</v>
+        <v>0.5003734549681842</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2451</v>
@@ -1213,19 +1213,19 @@
         <v>2085128</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2017812</v>
+        <v>2013280</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2153579</v>
+        <v>2160212</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4758043953307635</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.460443606799142</v>
+        <v>0.4594093082873437</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4914241377602533</v>
+        <v>0.4929378647638979</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>61048</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>45988</v>
+        <v>46030</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>80264</v>
+        <v>80832</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08601047640497657</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06479262003641707</v>
+        <v>0.06485113291645067</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1130831430284496</v>
+        <v>0.1138837626295143</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>106</v>
@@ -1338,19 +1338,19 @@
         <v>82156</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>66493</v>
+        <v>67782</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>99235</v>
+        <v>100725</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1117958840898567</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09048137346824402</v>
+        <v>0.09223616796090925</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1350357917040338</v>
+        <v>0.1370639583174262</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>159</v>
@@ -1359,19 +1359,19 @@
         <v>143204</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>122542</v>
+        <v>119632</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>167041</v>
+        <v>166296</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.09912720799683099</v>
+        <v>0.09912720799683103</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08482428815215744</v>
+        <v>0.08280995149723878</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1156274092812806</v>
+        <v>0.1151118001630761</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>281635</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>255906</v>
+        <v>253501</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>310343</v>
+        <v>308103</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3967948750017145</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3605447231848189</v>
+        <v>0.3571565886094685</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4372413148449893</v>
+        <v>0.4340860367957496</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>336</v>
@@ -1409,19 +1409,19 @@
         <v>256193</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>234360</v>
+        <v>234353</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>280345</v>
+        <v>280954</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3486206477514426</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3189105730732572</v>
+        <v>0.3189014060716057</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3814859602159906</v>
+        <v>0.3823148478965001</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>608</v>
@@ -1430,19 +1430,19 @@
         <v>537828</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>503510</v>
+        <v>503306</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>573222</v>
+        <v>576545</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.372289215979021</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3485339094836745</v>
+        <v>0.3483924015221979</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3967886690921199</v>
+        <v>0.3990892441816689</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>367092</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>339928</v>
+        <v>342113</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>396158</v>
+        <v>396818</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5171946485933088</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4789240886791708</v>
+        <v>0.4820026547305231</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5581458433206642</v>
+        <v>0.5590762730078983</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>562</v>
@@ -1480,19 +1480,19 @@
         <v>396527</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>369701</v>
+        <v>369020</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>420021</v>
+        <v>418218</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5395834681587005</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5030786432935089</v>
+        <v>0.5021522803455409</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5715530198073238</v>
+        <v>0.5690999324593987</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>915</v>
@@ -1501,19 +1501,19 @@
         <v>763619</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>728062</v>
+        <v>728246</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>799417</v>
+        <v>800967</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5285835760241481</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5039701930429092</v>
+        <v>0.5040977126011679</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5533630704167759</v>
+        <v>0.5544358653950223</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>330036</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>291679</v>
+        <v>292080</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>375198</v>
+        <v>369447</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09412223450020275</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0831830927780402</v>
+        <v>0.08329764773688743</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1070017979749058</v>
+        <v>0.1053615163200811</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>527</v>
@@ -1626,19 +1626,19 @@
         <v>378650</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>347944</v>
+        <v>347554</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>414330</v>
+        <v>414833</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1019542619569922</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09368631916774814</v>
+        <v>0.09358130688162125</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1115613211300097</v>
+        <v>0.1116966672031799</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>805</v>
@@ -1647,19 +1647,19 @@
         <v>708686</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>657929</v>
+        <v>656633</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>764386</v>
+        <v>763712</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.09815076281637071</v>
+        <v>0.09815076281637068</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09112104281297617</v>
+        <v>0.0909415673234806</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1058649886000518</v>
+        <v>0.1057715779928564</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>1515633</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1452553</v>
+        <v>1442968</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1582526</v>
+        <v>1578714</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4322394889789488</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4142498016371782</v>
+        <v>0.4115163327994395</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4513163844463809</v>
+        <v>0.450229275504225</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2223</v>
@@ -1697,19 +1697,19 @@
         <v>1585709</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1530933</v>
+        <v>1532560</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1642233</v>
+        <v>1636035</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4269636024265251</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4122147810339815</v>
+        <v>0.4126528080411566</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4421830700041883</v>
+        <v>0.4405142995087722</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3691</v>
@@ -1718,19 +1718,19 @@
         <v>3101342</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3011223</v>
+        <v>3014545</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3188307</v>
+        <v>3182926</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4295257525311912</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4170445785166181</v>
+        <v>0.4175046840439669</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4415701470932571</v>
+        <v>0.4408248227702496</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>1660797</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1590889</v>
+        <v>1599169</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1724614</v>
+        <v>1728828</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4736382765208485</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4537013936136988</v>
+        <v>0.4560630094876431</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4918381329902381</v>
+        <v>0.4930401126747253</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2589</v>
@@ -1768,19 +1768,19 @@
         <v>1749562</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1690101</v>
+        <v>1699581</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1804000</v>
+        <v>1805651</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.4710821356164826</v>
+        <v>0.4710821356164827</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4550718886543726</v>
+        <v>0.4576243315010766</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4857401174689241</v>
+        <v>0.4861844478244018</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>4191</v>
@@ -1789,19 +1789,19 @@
         <v>3410358</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3323678</v>
+        <v>3325223</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>3494148</v>
+        <v>3502938</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.4723234846524383</v>
+        <v>0.4723234846524382</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4603184857257054</v>
+        <v>0.4605325496650889</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4839280643348048</v>
+        <v>0.4851455093812624</v>
       </c>
     </row>
     <row r="19">
